--- a/Exports/Programming DocPac.xlsx
+++ b/Exports/Programming DocPac.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveycstech-my.sharepoint.com/personal/aidan2023382_live_ytech_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveycstech-my.sharepoint.com/personal/aidan2023382_live_ytech_edu/Documents/Github/docpacs2122/Exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FBA2219-C47B-490F-8DB1-187A6846A7DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD28193-9D9E-4249-AF3E-ED1F377BAF5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{32484C1D-9C75-4957-8604-D1053A17B984}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{32484C1D-9C75-4957-8604-D1053A17B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>Assess knowledge of Javascript</t>
+  </si>
+  <si>
+    <t>Printed</t>
+  </si>
+  <si>
+    <t>Syllabus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 2 </t>
+  </si>
+  <si>
+    <t>DocPac Expectations</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Assingment Name</t>
+  </si>
+  <si>
+    <t>Signed Syllabus</t>
+  </si>
+  <si>
+    <t>Javascript Initial Assessment (js_assess.js)</t>
   </si>
 </sst>
 </file>
@@ -407,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9A7DB5-AC61-4B29-BFC8-F37F5680E13D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,15 +480,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D30F3F7-430A-4866-93CA-CC57104C99B6}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -478,6 +502,39 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -485,12 +542,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D695B668-03FA-4899-A177-F8CD6E2821D4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -731,18 +827,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,26 +861,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C285CC4-3253-4C12-975B-4002A1BA8DE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="97551102-5158-477f-890e-1cd2281c8b2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="afa79ede-8800-4b38-b2d4-921a0a289804"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73DF8B37-3924-4B7F-92F7-3C408EBADD86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C285CC4-3253-4C12-975B-4002A1BA8DE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="97551102-5158-477f-890e-1cd2281c8b2d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="afa79ede-8800-4b38-b2d4-921a0a289804"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Exports/Programming DocPac.xlsx
+++ b/Exports/Programming DocPac.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveycstech-my.sharepoint.com/personal/aidan2023382_live_ytech_edu/Documents/Github/docpacs2122/Exports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jlara\OneDrive - York County School of Technology\GITHUB\Personal Personal project\docpacs2122\Exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD28193-9D9E-4249-AF3E-ED1F377BAF5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7DD28193-9D9E-4249-AF3E-ED1F377BAF5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{81315B42-B3A3-4ED6-8BDA-5801F5F7A9E6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{32484C1D-9C75-4957-8604-D1053A17B984}"/>
   </bookViews>
@@ -70,13 +70,13 @@
     <t>Upload</t>
   </si>
   <si>
-    <t>Assingment Name</t>
-  </si>
-  <si>
     <t>Signed Syllabus</t>
   </si>
   <si>
     <t>Javascript Initial Assessment (js_assess.js)</t>
+  </si>
+  <si>
+    <t>Assingment-Name</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +545,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,18 +827,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,26 +861,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C285CC4-3253-4C12-975B-4002A1BA8DE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="97551102-5158-477f-890e-1cd2281c8b2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="afa79ede-8800-4b38-b2d4-921a0a289804"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73DF8B37-3924-4B7F-92F7-3C408EBADD86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C285CC4-3253-4C12-975B-4002A1BA8DE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="97551102-5158-477f-890e-1cd2281c8b2d"/>
+    <ds:schemaRef ds:uri="afa79ede-8800-4b38-b2d4-921a0a289804"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Exports/Programming DocPac.xlsx
+++ b/Exports/Programming DocPac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveycstech-my.sharepoint.com/personal/aidan2023382_live_ytech_edu/Documents/Github/docpacs2122/Exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD28193-9D9E-4249-AF3E-ED1F377BAF5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{5EE7BD1E-E5FE-4F74-AA97-0CAEE60AA285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D4D8AD27-B774-473E-9BBF-03BB6DD98B77}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{32484C1D-9C75-4957-8604-D1053A17B984}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{32484C1D-9C75-4957-8604-D1053A17B984}"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="401">
   <si>
     <t>Date</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Aug27</t>
   </si>
   <si>
-    <t>Establish classroom expectations for Year ‘21-‘22</t>
-  </si>
-  <si>
     <t>Review knowledge of basic programming</t>
   </si>
   <si>
@@ -77,6 +74,1164 @@
   </si>
   <si>
     <t>Javascript Initial Assessment (js_assess.js)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Sep03</t>
+  </si>
+  <si>
+    <t>Understand different ways of sharing files and data with teammates</t>
+  </si>
+  <si>
+    <t>Review using github to complete projects together</t>
+  </si>
+  <si>
+    <t>Understand how basic nodejs applications work</t>
+  </si>
+  <si>
+    <t>Viewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build A Webserver Using nodejs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sept. 1st: Github practice assignment </t>
+  </si>
+  <si>
+    <t>[data missing]</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Sep07</t>
+  </si>
+  <si>
+    <t>Department and Name required on front of DocPacs</t>
+  </si>
+  <si>
+    <t>Permanent changes made to DocPacs are now listed here each week</t>
+  </si>
+  <si>
+    <t>Each week’s important events are now listed on the front of the DocPac</t>
+  </si>
+  <si>
+    <t>A new icon ( eye ) means this needs to be reviewed and signed off on by Mr. Smith during the week, before final submission of your DocPac. It also means you must be present in class to receive this assignment.</t>
+  </si>
+  <si>
+    <t>DocPacs are now in a Github repository for students to fork and make pull requests. Having pull requests accepted yields extra credit.</t>
+  </si>
+  <si>
+    <t>Checkboxes circled with “OK” decrease the maximum number of checks available for grading, but can still count towards your score if completed anyways.</t>
+  </si>
+  <si>
+    <t>Event Date</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Aug30</t>
+  </si>
+  <si>
+    <t>Aug31</t>
+  </si>
+  <si>
+    <t>Sep01</t>
+  </si>
+  <si>
+    <t>Lesson</t>
+  </si>
+  <si>
+    <t>Pictures</t>
+  </si>
+  <si>
+    <t>Reviewing Data Sharing and Cloud Services</t>
+  </si>
+  <si>
+    <t>Git Review</t>
+  </si>
+  <si>
+    <t>No school until Sept. 7th</t>
+  </si>
+  <si>
+    <t>Sep10</t>
+  </si>
+  <si>
+    <t>Sep11</t>
+  </si>
+  <si>
+    <t>Successfully fork, clone, edit, commit, push, and pull request the DocPac git repository on GitHub</t>
+  </si>
+  <si>
+    <t>Begin compiling notebook by writing instructions for initializing a Nodejs project and creating an HTTP server in Nodejs</t>
+  </si>
+  <si>
+    <t>Begin compiling your portfolio by printing out your Nodejs HTTP Server code</t>
+  </si>
+  <si>
+    <t>Establish classroom expectations for Year 21-22</t>
+  </si>
+  <si>
+    <t>Sep13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Your Notebook </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Your Portfolio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocPacs on Github </t>
+  </si>
+  <si>
+    <t>DocPac Github Repository</t>
+  </si>
+  <si>
+    <t>Notebook 1: Initialize Nodejs Project</t>
+  </si>
+  <si>
+    <t>Notebook 2: Nodejs HTTP Server</t>
+  </si>
+  <si>
+    <t>Portfolio 1: Nodejs HTTP Server</t>
+  </si>
+  <si>
+    <t>Notebook entries will now be stored in the DocPac binder</t>
+  </si>
+  <si>
+    <t>Portfolio entries will now be stored in the DocPac binder</t>
+  </si>
+  <si>
+    <t>DocPacs now available for editing on Github</t>
+  </si>
+  <si>
+    <t>QR Codes provided on the DocPac when available</t>
+  </si>
+  <si>
+    <t>Sep14</t>
+  </si>
+  <si>
+    <t>Sep09</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>Live Tutorial</t>
+  </si>
+  <si>
+    <t>Weekly Review</t>
+  </si>
+  <si>
+    <t>Imposter Syndrome (Extra Credits)</t>
+  </si>
+  <si>
+    <t>The Importance of Documentation</t>
+  </si>
+  <si>
+    <t>Accessing the DocPac Git Repo on Github</t>
+  </si>
+  <si>
+    <t>DocPac Sep3 and Sep10 due for grading</t>
+  </si>
+  <si>
+    <t>Sep17</t>
+  </si>
+  <si>
+    <t>Sep20</t>
+  </si>
+  <si>
+    <t>Sep21</t>
+  </si>
+  <si>
+    <t>Import ExpressJS middleware into your Nodejs HTTP server project</t>
+  </si>
+  <si>
+    <t>Create “endpoints” users can navigate to in ExpressJS</t>
+  </si>
+  <si>
+    <t>Serve HTML files with CSS stylesheets and Javascript files from ExpressJS</t>
+  </si>
+  <si>
+    <t>Create a complete website using ExpressJS and the goals above</t>
+  </si>
+  <si>
+    <t>Learn how to update, replace missing, and print DocPacs</t>
+  </si>
+  <si>
+    <t>Create a schedule and track it over time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpressJS Middleware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpressJS Team Website </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Express Middleware </t>
+  </si>
+  <si>
+    <t>Updated Version of this DocPac</t>
+  </si>
+  <si>
+    <t>To reduce confusion, “Companies” and “Departments” are just called “Teams”</t>
+  </si>
+  <si>
+    <t>Some tasks can now be worth multiple check marks when scored</t>
+  </si>
+  <si>
+    <t>Sep23</t>
+  </si>
+  <si>
+    <t>Sep15</t>
+  </si>
+  <si>
+    <t>Quick Weekly Review</t>
+  </si>
+  <si>
+    <t>Updating DocPacs Lesson</t>
+  </si>
+  <si>
+    <t>Last Week’s DocPac Full Review</t>
+  </si>
+  <si>
+    <t>Building a Schedule</t>
+  </si>
+  <si>
+    <t>Building an ExpressJS Application</t>
+  </si>
+  <si>
+    <t>Parsing Query Params in ExpressJS</t>
+  </si>
+  <si>
+    <t>All Updated DocPacs due</t>
+  </si>
+  <si>
+    <t>Sep24</t>
+  </si>
+  <si>
+    <t>Successfully use EJS to create templates to serve with ExpressJS</t>
+  </si>
+  <si>
+    <t>Use repository branching to organize complex Git projects</t>
+  </si>
+  <si>
+    <t>Review the basics of Javascript and prepare to study the language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook 4: EJS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Your Team Website with EJS </t>
+  </si>
+  <si>
+    <t>Codecademy Setup</t>
+  </si>
+  <si>
+    <t>ExpressJS with EJS Links</t>
+  </si>
+  <si>
+    <t>Written</t>
+  </si>
+  <si>
+    <t>Upgrade Team Website with EJS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook 4: ReactJS </t>
+  </si>
+  <si>
+    <t>Codecademy “Learn Javascript” course, “Introduction” Chapter</t>
+  </si>
+  <si>
+    <t>Added “pencil ” to indicate Mr. Smith will manually grade these without any need for submission. The task must be completed by the end of the day that the DocPac is to be submitted.</t>
+  </si>
+  <si>
+    <t>Reflections reduced to two questions per week. They will change each week so look for them!</t>
+  </si>
+  <si>
+    <t>You will now be graded on the physical condition of your DocPacs</t>
+  </si>
+  <si>
+    <t>Sep4</t>
+  </si>
+  <si>
+    <t>Using Git Repo branches</t>
+  </si>
+  <si>
+    <t>ExpressJS and EJS Templating</t>
+  </si>
+  <si>
+    <t>DocPacs Due</t>
+  </si>
+  <si>
+    <t>IT Fundamentals rotation begins</t>
+  </si>
+  <si>
+    <t>No School</t>
+  </si>
+  <si>
+    <t>Oct01</t>
+  </si>
+  <si>
+    <t>Consolidate and organize all Notebook tutorials to this point</t>
+  </si>
+  <si>
+    <t>Learn how to use KanBan boards to manage projects</t>
+  </si>
+  <si>
+    <t>Be able to create an ExpressJS HTTP server from memory</t>
+  </si>
+  <si>
+    <t>Notebook Development</t>
+  </si>
+  <si>
+    <t>Notebook 1: Initializing NodeJS Project</t>
+  </si>
+  <si>
+    <t>Notebook 2: NodeJS HTTP Server</t>
+  </si>
+  <si>
+    <t>Notebook 3: Using ExpressJS with NodeJS</t>
+  </si>
+  <si>
+    <t>Notebook 4: Using EJS with ExpressJS</t>
+  </si>
+  <si>
+    <t>Team Trello Board</t>
+  </si>
+  <si>
+    <t>Codecademy “Learn Javascript” course, “Conditionals” Chapter</t>
+  </si>
+  <si>
+    <t>Your Notebook and Portfolio pages will now be penalized per major mistake made, rather than “present/complete/no errors”</t>
+  </si>
+  <si>
+    <t>You can now elect to share a submission with another team member by indicating their name on that submission on the back of the DocPac</t>
+  </si>
+  <si>
+    <t>Sep27</t>
+  </si>
+  <si>
+    <t>Sep29</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Project Management with KanBan</t>
+  </si>
+  <si>
+    <t>ExpressJS HTTP Server</t>
+  </si>
+  <si>
+    <t>Oct08</t>
+  </si>
+  <si>
+    <t>Establish and document standards for Notebook entries for your team.</t>
+  </si>
+  <si>
+    <t>Create JSON files to store Javascript Objects on the hard disk.</t>
+  </si>
+  <si>
+    <t>Read JSON files in NodeJS as parse into a Javascript Object</t>
+  </si>
+  <si>
+    <t>Convert Javascript Objects to a string to save in a JSON file</t>
+  </si>
+  <si>
+    <t>Use data from a JSON file to populate EJS Templates with data</t>
+  </si>
+  <si>
+    <t>Read Query Parameters with ExpressJS</t>
+  </si>
+  <si>
+    <t>Save data passed by Query Parameters to a JSON file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Documentation: Notebook Entry Format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Website Upgrade: Load Team Profiles from JSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Website Upgrade: Save Query Parameters to JSON </t>
+  </si>
+  <si>
+    <t>Analysis: Team Composition</t>
+  </si>
+  <si>
+    <t>Oct12</t>
+  </si>
+  <si>
+    <t>Team Documentation: Notebook Entry Format</t>
+  </si>
+  <si>
+    <t>Team Website Upgrade: Load Team Profiles from JSON</t>
+  </si>
+  <si>
+    <t>Team Website Upgrade: Save Query Params to JSON</t>
+  </si>
+  <si>
+    <t>Codecademy “Learn Javascript” course, “Functions” Chapter</t>
+  </si>
+  <si>
+    <t>Grading Rubric: Checkmark is for credit. Cross mark is for missed.</t>
+  </si>
+  <si>
+    <t>Oct04</t>
+  </si>
+  <si>
+    <t>Oct05</t>
+  </si>
+  <si>
+    <t>Oct07</t>
+  </si>
+  <si>
+    <t>Working with JSON Files</t>
+  </si>
+  <si>
+    <t>Reading Query Parameters</t>
+  </si>
+  <si>
+    <t>Oct15</t>
+  </si>
+  <si>
+    <t>Oct18</t>
+  </si>
+  <si>
+    <t>Oct20</t>
+  </si>
+  <si>
+    <t>Ensure your Codecademy is up to date</t>
+  </si>
+  <si>
+    <t>Analyze Meritocracy and Team Composition</t>
+  </si>
+  <si>
+    <t>Understand the difference between HTTP GET and HTTP POST requests</t>
+  </si>
+  <si>
+    <t>Accept and handle POST requests and parameters in ExpressJS</t>
+  </si>
+  <si>
+    <t>Send POST requests w/ parameters via Postman</t>
+  </si>
+  <si>
+    <t>Create an HTML form that can submit form data as a POST request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook 5: HTML Submit Form Data </t>
+  </si>
+  <si>
+    <t>Notebook 6: ExpressJS POST Requests</t>
+  </si>
+  <si>
+    <t>Team Website Upgrade: Record Comments with HTML Form</t>
+  </si>
+  <si>
+    <t>Notebook 5: HTML Submit Form Data</t>
+  </si>
+  <si>
+    <t>Codecademy: Everything assigned in previous DocPacs</t>
+  </si>
+  <si>
+    <t>Oct14</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>HTTP Post Requests</t>
+  </si>
+  <si>
+    <t>Meritocracy and Teams</t>
+  </si>
+  <si>
+    <t>End-of-Week Code Review</t>
+  </si>
+  <si>
+    <t>Oct22</t>
+  </si>
+  <si>
+    <t>Oct25</t>
+  </si>
+  <si>
+    <t>Prepare a Cover Letter and Resumes for your team</t>
+  </si>
+  <si>
+    <t>Prepare for a group interview to receive your choice of team project</t>
+  </si>
+  <si>
+    <t>Complete the “Scope” chapter of Codecademy “Learn Javascript” course</t>
+  </si>
+  <si>
+    <t>Upgrade Team Website for show comments left by others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover Letter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Resume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Team Website: Comments Section </t>
+  </si>
+  <si>
+    <t>Available Team Projects</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Scopes. Lesson, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>To get credit for showing your team website, it must be running on your computer from your git branch/fork. You cannot get credit for others having it checked</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Pre-Nocti Test</t>
+  </si>
+  <si>
+    <t>Oct29</t>
+  </si>
+  <si>
+    <t>Prepare for DocPac Binder Audit</t>
+  </si>
+  <si>
+    <t>Prepare for Team Project Interviews</t>
+  </si>
+  <si>
+    <t>Prepare for nodeJS/ExpressJS/EJS exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocPac Binder Audit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Project Interviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodeJS/ExpressJS/EJS exam </t>
+  </si>
+  <si>
+    <t>Notebooks 1 - 6</t>
+  </si>
+  <si>
+    <t>DocPacs Aug17 – Oct29</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, all chapters up to Scopes</t>
+  </si>
+  <si>
+    <t>Oct26</t>
+  </si>
+  <si>
+    <t>Oct27</t>
+  </si>
+  <si>
+    <t>Oct28</t>
+  </si>
+  <si>
+    <t>Teams A, B, C Interviews</t>
+  </si>
+  <si>
+    <t>Team D Invterview</t>
+  </si>
+  <si>
+    <t>Teams E, F, G Interviews</t>
+  </si>
+  <si>
+    <t>nodeJS/ExpressJS/EJS exam</t>
+  </si>
+  <si>
+    <t>Nov05</t>
+  </si>
+  <si>
+    <t>Learn to send professional Emails</t>
+  </si>
+  <si>
+    <t>Develop a Personal Improvement Plan</t>
+  </si>
+  <si>
+    <t>Learn about Contracts</t>
+  </si>
+  <si>
+    <t>Pass the ExpressJS Exam</t>
+  </si>
+  <si>
+    <t>Continue Codecademy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sending Professional Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Improvement Plan </t>
+  </si>
+  <si>
+    <t>Personal Improvement Plan</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Arrays. Lesson, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>Nov02</t>
+  </si>
+  <si>
+    <t>Nov03</t>
+  </si>
+  <si>
+    <t>Nov04</t>
+  </si>
+  <si>
+    <t>Sending Professional Emails</t>
+  </si>
+  <si>
+    <t>DenMark in Auditorium @ 8:30AM</t>
+  </si>
+  <si>
+    <t>The Contract</t>
+  </si>
+  <si>
+    <t>ExpressJS Exam Retake</t>
+  </si>
+  <si>
+    <t>Nov12</t>
+  </si>
+  <si>
+    <t>Receive projects and sign contracts</t>
+  </si>
+  <si>
+    <t>Analyze project requirements and design an MVP</t>
+  </si>
+  <si>
+    <t>Break plans down into smaller pieces, set goals and timelines</t>
+  </si>
+  <si>
+    <t>Begin preparing for Q2 exam</t>
+  </si>
+  <si>
+    <t>Nov19</t>
+  </si>
+  <si>
+    <t>Design an MVP</t>
+  </si>
+  <si>
+    <t>Break MVP down into steps and assign on a KanBan board</t>
+  </si>
+  <si>
+    <t>Schedule Meetings</t>
+  </si>
+  <si>
+    <t>Progress Exam Preparation Plan</t>
+  </si>
+  <si>
+    <t>Produce First Prototype</t>
+  </si>
+  <si>
+    <t>Dec3</t>
+  </si>
+  <si>
+    <t>Bootcamp Javascript every day to build coding skills</t>
+  </si>
+  <si>
+    <t>Dec10</t>
+  </si>
+  <si>
+    <t>Use the skills you built in JS Bootcamp to hit your first Team Project goal</t>
+  </si>
+  <si>
+    <t>Practice writing JS syntax to solve problems</t>
+  </si>
+  <si>
+    <t>Finish Codecademy</t>
+  </si>
+  <si>
+    <t>Wrap up JS Bootcamp git repos</t>
+  </si>
+  <si>
+    <t>Dec17</t>
+  </si>
+  <si>
+    <t>Submit Codecademy screenshots in Schoology</t>
+  </si>
+  <si>
+    <t>Analyze comments and code review on issues and Pull Requests</t>
+  </si>
+  <si>
+    <t>Submit a Pull Request to your team project that completes a set goal</t>
+  </si>
+  <si>
+    <t>Configure .gitignore and readme.md</t>
+  </si>
+  <si>
+    <t>Determine when to use for, forin, forof, foreach()</t>
+  </si>
+  <si>
+    <t>Learn basic Javascript graphics generation</t>
+  </si>
+  <si>
+    <t>Dec22</t>
+  </si>
+  <si>
+    <t>Print and submit/resubmit all missing DocPacs or DocPacs with missing documents</t>
+  </si>
+  <si>
+    <t>Break JS Bootcamp Game down into a flow chart</t>
+  </si>
+  <si>
+    <t>Jan7</t>
+  </si>
+  <si>
+    <t>Examine requirements for the NOCTI</t>
+  </si>
+  <si>
+    <t>Develop a plan to pass the preformance NOCTI</t>
+  </si>
+  <si>
+    <t>Practiced the skills required in our plan</t>
+  </si>
+  <si>
+    <t>Jan14</t>
+  </si>
+  <si>
+    <t>Develop a Daily Routine</t>
+  </si>
+  <si>
+    <t>Design a flow chart for the Exam</t>
+  </si>
+  <si>
+    <t>Practice the skills required to pass the Exam</t>
+  </si>
+  <si>
+    <t>Present Team Projects to Teacher</t>
+  </si>
+  <si>
+    <t>Jan21</t>
+  </si>
+  <si>
+    <t>Prepare for Exam</t>
+  </si>
+  <si>
+    <t>Pass Exam</t>
+  </si>
+  <si>
+    <t>Jan28</t>
+  </si>
+  <si>
+    <t>Review reading/Writing to JSON foles for Exam</t>
+  </si>
+  <si>
+    <t>Prepare DocPac Binders for grading and review</t>
+  </si>
+  <si>
+    <t>Feb4</t>
+  </si>
+  <si>
+    <t>Understand requirements for flow charts for Nocti</t>
+  </si>
+  <si>
+    <t>Solve a variety of Javascript problems that may appear on the Nocti</t>
+  </si>
+  <si>
+    <t>Prepare DocPac Data for Analysis</t>
+  </si>
+  <si>
+    <t>Page 2</t>
+  </si>
+  <si>
+    <t>Project Assignment Schedule</t>
+  </si>
+  <si>
+    <t>Q2 Exam Expectations</t>
+  </si>
+  <si>
+    <t>Exam Preparation Plan</t>
+  </si>
+  <si>
+    <t>Smiley Face</t>
+  </si>
+  <si>
+    <t>JS Bootcamp Key Take-Aways</t>
+  </si>
+  <si>
+    <t>JS Challenge Pt.1</t>
+  </si>
+  <si>
+    <t>JS Challenge Pt. 2</t>
+  </si>
+  <si>
+    <t>JS Bootcamp (Dec15) Canvas + Iterators</t>
+  </si>
+  <si>
+    <t>JS Bootcamp Flow Chart (Dec21)</t>
+  </si>
+  <si>
+    <t>Winter Break Schedule</t>
+  </si>
+  <si>
+    <t>Design a Routine</t>
+  </si>
+  <si>
+    <t>Lesson Key Take-Aways x 3</t>
+  </si>
+  <si>
+    <t>JS Challenge Pt. 3</t>
+  </si>
+  <si>
+    <t>Exam Preparation Progress Report</t>
+  </si>
+  <si>
+    <t>Team Project Presentation</t>
+  </si>
+  <si>
+    <t>Page 3</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Lesson Key Take-Aways x 2</t>
+  </si>
+  <si>
+    <t>JS Challenge Pt. 4</t>
+  </si>
+  <si>
+    <t>JS Challenge Pt. 5</t>
+  </si>
+  <si>
+    <t>Exam Preparation</t>
+  </si>
+  <si>
+    <t>DocPac Binder Audit</t>
+  </si>
+  <si>
+    <t>Lesson Key Take-Aways</t>
+  </si>
+  <si>
+    <t>Reward System Brainstorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single: Nocti Flowchart Perparation </t>
+  </si>
+  <si>
+    <t>Teams: DocPac Digitalization</t>
+  </si>
+  <si>
+    <t>Pairs: JS Challenge Pt. 7</t>
+  </si>
+  <si>
+    <t>Pairs: JS Challenge Pt. 8</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Loops. Lesson, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Iterators. Lesson, Lesson, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>All four days of JS Bootcamp 2122 accepted as pull requests into csmith1188/jsbootcamp2122 on GitHub.com</t>
+  </si>
+  <si>
+    <t>Codecademy: Learn Javascript, Objects. Lesson, Lesson, Project, Project, and Quiz</t>
+  </si>
+  <si>
+    <t>Team Project Goal</t>
+  </si>
+  <si>
+    <t>JS Challenge Pt. 1</t>
+  </si>
+  <si>
+    <t>Show instructor your Team Project's goal being met</t>
+  </si>
+  <si>
+    <t>Get your JS Bootcamp for accepted as a Pull Request to the upstream</t>
+  </si>
+  <si>
+    <t>Codecademy: All Codecademy complete (DocPac rejected if not completed)</t>
+  </si>
+  <si>
+    <t>JS Challenge Pt.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam Preparation Progress Report </t>
+  </si>
+  <si>
+    <t>Single: Nocti Flowchart Preparation</t>
+  </si>
+  <si>
+    <t>DocPac review now a part of Weekly Review</t>
+  </si>
+  <si>
+    <t>Reflection instructions clarified in DocPac</t>
+  </si>
+  <si>
+    <t>Reflection instructions  clarified in DocPac</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Softcore memes allowed in #general. No Spam</t>
+  </si>
+  <si>
+    <t>Reflection questions have changed</t>
+  </si>
+  <si>
+    <t>New Grading System</t>
+  </si>
+  <si>
+    <t>Single: This assignment should only be completed by you. Do not share</t>
+  </si>
+  <si>
+    <t>Pairs: Only one or two people may complete this assignment. Do not share</t>
+  </si>
+  <si>
+    <t>Teams: Your whole team can complete and share this project with each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 8th       </t>
+  </si>
+  <si>
+    <t>Check your emails before class begins</t>
+  </si>
+  <si>
+    <t>Private Meetings</t>
+  </si>
+  <si>
+    <t>Brainstorming Design Questions</t>
+  </si>
+  <si>
+    <t>Teams A, C, D receive projects</t>
+  </si>
+  <si>
+    <t>Teams E, F, G receive projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 10th         </t>
+  </si>
+  <si>
+    <t>Minimum Viable Product and Making Plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 11th       </t>
+  </si>
+  <si>
+    <t>Exam Preparation Plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 15th     </t>
+  </si>
+  <si>
+    <t>Juniors to Pre-Nocti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 16th   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 16th     </t>
+  </si>
+  <si>
+    <t>Scheduling a Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 19th    </t>
+  </si>
+  <si>
+    <t>Senior Interviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 30th    </t>
+  </si>
+  <si>
+    <t>JS Bootcamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 1st         </t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 2nd              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 3rd          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 6th          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 7th        </t>
+  </si>
+  <si>
+    <t>Ordered and Unordered Collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 8th        </t>
+  </si>
+  <si>
+    <t>Intervention Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 9th       </t>
+  </si>
+  <si>
+    <t>Iterating Through Collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 10th       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 13th     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 13th         </t>
+  </si>
+  <si>
+    <t>Github Project Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 15th    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 15th     </t>
+  </si>
+  <si>
+    <t>Bootcamp</t>
+  </si>
+  <si>
+    <t>Canvas + Iterators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 16th    </t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>DocPac Early Submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 17th    </t>
+  </si>
+  <si>
+    <t>Free Day. No work required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 20th     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 20th      </t>
+  </si>
+  <si>
+    <t>Github Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 21st      </t>
+  </si>
+  <si>
+    <t>Flow Charts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 22nd     </t>
+  </si>
+  <si>
+    <t>Final DocPac Submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 3rd                    </t>
+  </si>
+  <si>
+    <t>Examining the NOCTI Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 5th         </t>
+  </si>
+  <si>
+    <t>Building NOCTI Flowchart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 7th          </t>
+  </si>
+  <si>
+    <t>Programming NOCTI Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 10th      </t>
+  </si>
+  <si>
+    <t>DocPac Jan07 Due</t>
+  </si>
+  <si>
+    <t>Routines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 11th         </t>
+  </si>
+  <si>
+    <t>nodeJS Debugging with Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 13th      </t>
+  </si>
+  <si>
+    <t>Building Exam Flowchart</t>
+  </si>
+  <si>
+    <t>Team Project Presentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 14th         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 18th      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 19th       </t>
+  </si>
+  <si>
+    <t>Exam Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 20th      </t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 21st        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 25th       </t>
+  </si>
+  <si>
+    <t>JSON Read/Write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 27th       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 28th      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 31st       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 4th          </t>
+  </si>
+  <si>
+    <t>Nov 8th</t>
+  </si>
+  <si>
+    <t>Nov 9th</t>
+  </si>
+  <si>
+    <t>Nov 10th</t>
   </si>
 </sst>
 </file>
@@ -429,15 +1584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9A7DB5-AC61-4B29-BFC8-F37F5680E13D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +1624,655 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -480,15 +2283,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D30F3F7-430A-4866-93CA-CC57104C99B6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,10 +2310,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,10 +2321,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,10 +2332,670 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -542,15 +3005,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D695B668-03FA-4899-A177-F8CD6E2821D4}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,15 +3024,18 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,45 +3043,2715 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B76" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" t="s">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AAD0C2-9933-4E01-8339-7824E22AD9C7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="192.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E6F3D7-8229-400D-93B9-D8522A9EF6FE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" t="s">
+        <v>357</v>
+      </c>
+      <c r="D76" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77" t="s">
+        <v>360</v>
+      </c>
+      <c r="D77" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B82B3A859C5B4419E9F4DEF0565ED83" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b852873dc24659d8f4eea8d7a9203904">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="afa79ede-8800-4b38-b2d4-921a0a289804" xmlns:ns4="97551102-5158-477f-890e-1cd2281c8b2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1682ea4e54a96cb399fabe1478bb2c7c" ns3:_="" ns4:_="">
     <xsd:import namespace="afa79ede-8800-4b38-b2d4-921a0a289804"/>
@@ -826,22 +5962,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C285CC4-3253-4C12-975B-4002A1BA8DE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="afa79ede-8800-4b38-b2d4-921a0a289804"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="97551102-5158-477f-890e-1cd2281c8b2d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73DF8B37-3924-4B7F-92F7-3C408EBADD86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA7EDC4-2DA6-4A0B-8D95-4E9B9001A73B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -858,29 +6004,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C285CC4-3253-4C12-975B-4002A1BA8DE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="97551102-5158-477f-890e-1cd2281c8b2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="afa79ede-8800-4b38-b2d4-921a0a289804"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73DF8B37-3924-4B7F-92F7-3C408EBADD86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>